--- a/medicine/Enfance/Folio_Cadet/Folio_Cadet.xlsx
+++ b/medicine/Enfance/Folio_Cadet/Folio_Cadet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Folio Cadet est une collection de littérature d'enfance et de jeunesse des éditions Gallimard.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection est créée en 1983. Son objectif est de publier au format de poche des livres destinés à un lectorat âgé  à l'origine de 7 à 10 ans.  Le nom de la collection renvoie à la collection de poche pour la jeunesse de la maison d'édition, la collection Folio Junior. Depuis 2010, la collection accueille les titres autrefois publiés dans la collection Folio Benjamin pour les lecteurs à partir de 6 ans  sous le label  Folio Cadet Premières Lectures, parmi lesquels les titres phares comme le  Prince de Motordu, Le Monstre poilu, et les déclinaisons de Le Petit Prince ou de Le Petit Nicolas .
 Folio Cadet fait partie du département Gallimard Jeunesse.
@@ -543,7 +557,9 @@
           <t>Principaux auteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hans Christian Andersen
@@ -601,7 +617,9 @@
           <t>Principaux illustrateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bill Basso
